--- a/QHKH/BIEUMAUEXCEL/BM05CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM05CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E21360-39B5-4FB7-ABA2-62B15D5A5F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3174C4D2-BABB-4EA1-95FF-5D5A0C358B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="-6165" yWindow="1920" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -385,6 +385,9 @@
     <t xml:space="preserve">DIỆN TÍCH ĐẤT CHƯA SỬ DỤNG ĐƯA VÀO SỬ DỤNG TRONG KỲ QUY HOẠCH PHÂN BỔ ĐẾN TỪNG ĐƠN VỊ HÀNH CHÍNH CẤP XÃ
 CỦA HUYỆN (QUẬN, THỊ XÃ, THÀNH PHỐ THUỘC TỈNH, THÀNH PHỐ THUỘC THÀNH PHỐ TRỰC THUỘC TRUNG ƯƠNG) …
 </t>
+  </si>
+  <si>
+    <t>BM05/CH</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -578,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +932,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -935,6 +941,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="Y2" s="19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
